--- a/database.xlsx
+++ b/database.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Tom" sheetId="1" r:id="rId1"/>
     <sheet name="zeri" sheetId="4" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -455,7 +455,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -491,7 +491,8 @@
         <v>19</v>
       </c>
       <c r="D2" s="2">
-        <v>22</v>
+        <f>D4+D3</f>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
